--- a/codes/test_shell_output/testall_Mjhor_Mhmos_details.xlsx
+++ b/codes/test_shell_output/testall_Mjhor_Mhmos_details.xlsx
@@ -379,15 +379,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1">
-        <v>45.32425653887496</v>
+        <v>55.80994197898698</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>45.32425653887496</v>
+        <v>55.80994197898698</v>
       </c>
       <c r="B6" s="1">
-        <v>45.32425653887496</v>
+        <v>55.80994197898698</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -397,20 +397,20 @@
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="1">
-        <v>14.83339304908635</v>
+        <v>21.0600595891485</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>14.83339304908635</v>
+        <v>21.0600595891485</v>
       </c>
       <c r="B9" s="1">
-        <v>14.83339304908635</v>
+        <v>21.0600595891485</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="1">
-        <v>39.84235041203871</v>
+        <v>23.12999843186451</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testall_Mjhor_Mhmos_details.xlsx
+++ b/codes/test_shell_output/testall_Mjhor_Mhmos_details.xlsx
@@ -379,15 +379,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1">
-        <v>55.80994197898698</v>
+        <v>31.49847094801223</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>55.80994197898698</v>
+        <v>31.49847094801223</v>
       </c>
       <c r="B6" s="1">
-        <v>55.80994197898698</v>
+        <v>31.49847094801223</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -397,20 +397,20 @@
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="1">
-        <v>21.0600595891485</v>
+        <v>10.83078491335372</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>21.0600595891485</v>
+        <v>10.83078491335372</v>
       </c>
       <c r="B9" s="1">
-        <v>21.0600595891485</v>
+        <v>10.83078491335372</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="1">
-        <v>23.12999843186451</v>
+        <v>57.67074413863405</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testall_Mjhor_Mhmos_details.xlsx
+++ b/codes/test_shell_output/testall_Mjhor_Mhmos_details.xlsx
@@ -379,15 +379,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1">
-        <v>31.49847094801223</v>
+        <v>31.73473210940427</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>31.49847094801223</v>
+        <v>31.73473210940427</v>
       </c>
       <c r="B6" s="1">
-        <v>31.49847094801223</v>
+        <v>31.73473210940427</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -397,20 +397,20 @@
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="1">
-        <v>10.83078491335372</v>
+        <v>10.95916073435744</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>10.83078491335372</v>
+        <v>10.95916073435744</v>
       </c>
       <c r="B9" s="1">
-        <v>10.83078491335372</v>
+        <v>10.95916073435744</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="1">
-        <v>57.67074413863405</v>
+        <v>57.30610715623829</v>
       </c>
     </row>
   </sheetData>
